--- a/students.xlsx
+++ b/students.xlsx
@@ -1,47 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FeesManagementApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>StudentID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Grade</t>
+    <t>SRN</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Mayank Sharma</t>
+  </si>
+  <si>
+    <t>Pooja Sharma</t>
+  </si>
+  <si>
+    <t>Ayush Kaushik</t>
   </si>
   <si>
     <t>TotalFees</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
-    <t>Alice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,13 +103,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -104,6 +132,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +218,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,19 +429,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -411,46 +451,58 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>4500</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>5000</v>
       </c>
     </row>
